--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_11 P_40 C语言初阶-函数.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_11 P_40 C语言初阶-函数.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>要在第二个源文件中编main函数的时候，记得把之前的main注释掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,12 +33,73 @@
     <t>用*交换指针的方式相当于直接把土地上的房子拔起来给换了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>见test_2024_6_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;与  ||或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么不在is_leap_year里面判断+打印——因为这样函数作用不够单一，不够模块化，不够高内聚低耦合，别人不好拿来用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能把这个求数组元素个数的sz放到函数里？不行！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这样的情况下，这里的arr就是一个指针变量，它的大小根据系统位数的不同不是4就是8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除出来不就是1么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以求数组元素数量不能放到函数里进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数组传参实际上是传了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数组首元素的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是一个指针变量，是个指针而不是一整个数组空间，因为那样形参会可能会占用极大的空间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_2024_6_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +109,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -74,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,6 +705,524 @@
         <a:xfrm>
           <a:off x="942975" y="33289875"/>
           <a:ext cx="7819048" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>141643</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>66187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="34394775"/>
+          <a:ext cx="9857143" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570862</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>171368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="36204525"/>
+          <a:ext cx="5104762" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522967</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>113398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="38671500"/>
+          <a:ext cx="7266667" cy="7219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112721</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>8827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="51863625"/>
+          <a:ext cx="12628571" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>162879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="46081951"/>
+          <a:ext cx="6000750" cy="5687378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>108713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>453556</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191874" y="53601113"/>
+          <a:ext cx="11893082" cy="4606162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="52959000"/>
+          <a:ext cx="4943475" cy="5114925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447061</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>142750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="58464450"/>
+          <a:ext cx="4914286" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3943350" y="55025925"/>
+          <a:ext cx="15535275" cy="4752976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>656307</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>47398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="58750200"/>
+          <a:ext cx="7342857" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590079</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>132908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="61750575"/>
+          <a:ext cx="3771429" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570923</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>9261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="62531625"/>
+          <a:ext cx="4619048" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37200</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>85230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="66074925"/>
+          <a:ext cx="7200000" cy="3961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,21 +1514,53 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C42:V105"/>
+  <dimension ref="C2:V351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="R210" sqref="R210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
+    <row r="2" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>0</v>
@@ -943,6 +1579,46 @@
     <row r="105" spans="22:22" x14ac:dyDescent="0.15">
       <c r="V105" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="15:21" x14ac:dyDescent="0.15">
+      <c r="U227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="15:21" x14ac:dyDescent="0.15">
+      <c r="O234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D338" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E351" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
